--- a/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
+++ b/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Test Case</t>
   </si>
@@ -117,8 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -434,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,6 +535,13 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" t="s" s="16">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
+++ b/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Test Case</t>
   </si>
@@ -117,8 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -436,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,6 +546,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" t="s" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" t="s" s="20">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
+++ b/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Test Case</t>
   </si>
@@ -117,8 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -440,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,6 +562,13 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" t="s" s="22">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
+++ b/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Test Case</t>
   </si>
@@ -117,8 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -442,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,6 +575,34 @@
       <c r="B12"/>
       <c r="C12" t="s" s="22">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" t="s" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" t="s" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" t="s" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" t="s" s="29">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
+++ b/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Test Case</t>
   </si>
@@ -117,8 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -450,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,6 +610,34 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" t="s" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" t="s" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" t="s" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" t="s" s="37">
         <v>5</v>
       </c>
     </row>

--- a/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
+++ b/demoqa/src/test/resources/readwritedocuments/TestResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>Test Case</t>
   </si>
@@ -117,8 +117,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -458,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,6 +677,139 @@
       <c r="B20"/>
       <c r="C20" t="s" s="37">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" t="s" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" t="s" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" t="s" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" t="s" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25" t="s" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26" t="s" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27" t="s" s="52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28" t="s" s="54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" t="s" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" t="s" s="58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31" t="s" s="60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32" t="s" s="62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33" t="s" s="64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34" t="s" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35" t="s" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36" t="s" s="69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37" t="s" s="71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38" t="s" s="74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39" t="s" s="76">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
